--- a/AccApi/Package-Access Aluminum panel.xlsx
+++ b/AccApi/Package-Access Aluminum panel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Item</t>
   </si>
@@ -29,21 +29,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Ressouce Type</t>
-  </si>
-  <si>
-    <t>Ressouce Code</t>
-  </si>
-  <si>
-    <t>Ressouce Description</t>
-  </si>
-  <si>
-    <t>Ressouce Unit</t>
-  </si>
-  <si>
-    <t>Ressouce Qty</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -77,55 +62,43 @@
     <t>LOT N°11 - PEINTURE (POUR 9 IMMEUBLES DE BUREAUX)</t>
   </si>
   <si>
+    <t>11.3.1</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
     <t>PEINTURE PANTEX 800</t>
   </si>
   <si>
+    <t>11.3.1.2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Pour Dalle PANTEX 800 mat sans enduit repassé.</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Peinture PANTEX 800 pour murs intérieurs sans enduit répassé</t>
-  </si>
-  <si>
-    <t>1 couche dimpression type PANTIPRIM de SEIGNEURIE 2 couches PANTEX 800 de SEIGNEURIE avec fongicide en finition</t>
-  </si>
-  <si>
-    <t>Localisation : Immeuble de bureau</t>
-  </si>
-  <si>
-    <t>R+2</t>
-  </si>
-  <si>
-    <t>BUR-11.3.1.1.54</t>
-  </si>
-  <si>
-    <t>- CTA</t>
+    <t>1 couche dimpression type PANTIPRIM de SEIGNEURIE 2 couches PANTEX 800 de SEIGNEURIE en finition</t>
+  </si>
+  <si>
+    <t>Localisation : Esplanade - Dalle des Locaux indiqués ci-dessous.</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>BUR-11.3.1.2.86</t>
+  </si>
+  <si>
+    <t>- Escalier B (dégagement + sous-face volet)</t>
   </si>
   <si>
     <t>m²</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>S021</t>
-  </si>
-  <si>
-    <t>PAINTING</t>
-  </si>
-  <si>
-    <t>BUR-11.3.1.1.55</t>
-  </si>
-  <si>
-    <t>- Escalier A</t>
-  </si>
-  <si>
-    <t>BUR-11.3.1.1.56</t>
-  </si>
-  <si>
-    <t>- Escalier B</t>
   </si>
 </sst>
 </file>
@@ -189,15 +162,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1" style="1"/>
-    <col min="8" max="8" width="50" customWidth="1" style="1"/>
-    <col min="12" max="12" width="50" customWidth="1" style="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1">
@@ -222,219 +195,121 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="E22" s="0">
-        <v>96.66</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="0">
-        <v>312792</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="0">
-        <v>647.19</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="0">
-        <v>2094307</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="0">
-        <v>695.97</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="0">
-        <v>2252159</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="4"/>
+        <v>273.42</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1"/>
